--- a/examples/mpad/Book1.xlsx
+++ b/examples/mpad/Book1.xlsx
@@ -27,9 +27,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>lin</t>
   </si>
   <si>
@@ -41,13 +38,16 @@
   <si>
     <t>log</t>
   </si>
+  <si>
+    <t>asn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -86,8 +86,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,7 +264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sin</c:v>
+                  <c:v>asn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -705,28 +705,177 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2500000000000015E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000012E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6875E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1437499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5562500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3187500000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13731250000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17149999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2109375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30706249999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42868749999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57131250000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63550000000000018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69293749999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7890625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.86268750000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91681250000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95443750000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9785625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98650000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9921875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99831250000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99993750000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119094656"/>
-        <c:axId val="119256576"/>
+        <c:axId val="96799360"/>
+        <c:axId val="96809344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119094656"/>
+        <c:axId val="96799360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119256576"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="96809344"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickMarkSkip val="10"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119256576"/>
+        <c:axId val="96809344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -736,7 +885,7 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119094656"/>
+        <c:crossAx val="96799360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -748,10 +897,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7618280473561494"/>
-          <c:y val="0.75298670310839244"/>
+          <c:x val="0.72817920630583632"/>
+          <c:y val="0.72819331467864035"/>
           <c:w val="9.3711882229232393E-2"/>
-          <c:h val="0.19926075356282943"/>
+          <c:h val="0.2490759419535368"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -759,7 +908,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1083,24 +1232,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118737920"/>
-        <c:axId val="118862976"/>
+        <c:axId val="96843264"/>
+        <c:axId val="96844800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118737920"/>
+        <c:axId val="96843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118862976"/>
+        <c:crossAx val="96844800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118862976"/>
+        <c:axId val="96844800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,20 +1257,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118737920"/>
+        <c:crossAx val="96843264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1482,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H45"/>
+  <dimension ref="B1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1493,7 +1641,7 @@
     <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1513,8 +1661,12 @@
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="J1">
+        <f>IF(C5&lt;=0.5,((C5*2)^3),(2-((1-C5)*2)^3))/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1525,24 +1677,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:10">
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="1">
         <f>D5^2</f>
         <v>0</v>
@@ -1568,11 +1720,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>1-(1-D5)^3</f>
+        <f>IF(C5&lt;=0.5,(4*(C5)^3),(1-4*((1-C5))^3))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:10">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B45" si="1">D6^2</f>
         <v>6.2500000000000012E-4</v>
@@ -1598,11 +1750,11 @@
         <v>7.314062500000007E-2</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H45" si="4">1-(1-D6)^3</f>
-        <v>7.314062500000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <f t="shared" ref="H6:H45" si="4">IF(C6&lt;=0.5,(4*(C6)^3),(1-4*((1-C6))^3))</f>
+        <v>6.2500000000000015E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="1">
         <f t="shared" si="1"/>
         <v>2.5000000000000005E-3</v>
@@ -1629,10 +1781,10 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="4"/>
-        <v>0.14262500000000011</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>5.0000000000000012E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="1">
         <f t="shared" si="1"/>
         <v>5.6249999999999998E-3</v>
@@ -1659,10 +1811,10 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>0.20854687499999991</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>1.6875E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="1">
         <f t="shared" si="1"/>
         <v>1.0000000000000002E-2</v>
@@ -1689,10 +1841,10 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="4"/>
-        <v>0.27099999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>4.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="1">
         <f t="shared" si="1"/>
         <v>1.5625E-2</v>
@@ -1719,10 +1871,10 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="4"/>
-        <v>0.330078125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="1">
         <f t="shared" si="1"/>
         <v>2.2499999999999999E-2</v>
@@ -1749,10 +1901,10 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="4"/>
-        <v>0.38587500000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="1">
         <f t="shared" si="1"/>
         <v>3.0624999999999996E-2</v>
@@ -1779,10 +1931,10 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="4"/>
-        <v>0.43848437500000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>2.1437499999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="1">
         <f t="shared" si="1"/>
         <v>4.0000000000000008E-2</v>
@@ -1809,10 +1961,10 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="4"/>
-        <v>0.48799999999999988</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>3.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="1">
         <f t="shared" si="1"/>
         <v>5.0625000000000003E-2</v>
@@ -1839,10 +1991,10 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>0.53451562499999994</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>4.5562500000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="1">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
@@ -1869,10 +2021,10 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="4"/>
-        <v>0.578125</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="1">
         <f t="shared" si="1"/>
         <v>7.5625000000000012E-2</v>
@@ -1899,7 +2051,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="4"/>
-        <v>0.61892187500000007</v>
+        <v>8.3187500000000025E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -1929,7 +2081,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="4"/>
-        <v>0.65700000000000003</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1959,7 +2111,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="4"/>
-        <v>0.69245312499999989</v>
+        <v>0.13731250000000003</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1989,7 +2141,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="4"/>
-        <v>0.72537499999999988</v>
+        <v>0.17149999999999996</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2019,7 +2171,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="4"/>
-        <v>0.755859375</v>
+        <v>0.2109375</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2049,7 +2201,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="4"/>
-        <v>0.78400000000000003</v>
+        <v>0.25600000000000006</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -2079,7 +2231,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="4"/>
-        <v>0.80989062500000009</v>
+        <v>0.30706249999999996</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -2109,7 +2261,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="4"/>
-        <v>0.83362499999999995</v>
+        <v>0.36450000000000005</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -2139,7 +2291,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="4"/>
-        <v>0.85529687499999996</v>
+        <v>0.42868749999999994</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -2169,7 +2321,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="4"/>
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -2199,7 +2351,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="4"/>
-        <v>0.89282812499999997</v>
+        <v>0.57131250000000011</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -2229,7 +2381,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="4"/>
-        <v>0.90887499999999999</v>
+        <v>0.63550000000000018</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -2259,7 +2411,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="4"/>
-        <v>0.92323437499999994</v>
+        <v>0.69293749999999998</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -2289,7 +2441,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="4"/>
-        <v>0.93599999999999994</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -2319,7 +2471,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="4"/>
-        <v>0.947265625</v>
+        <v>0.7890625</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -2349,7 +2501,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="4"/>
-        <v>0.957125</v>
+        <v>0.82850000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -2379,7 +2531,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="4"/>
-        <v>0.96567187499999996</v>
+        <v>0.86268750000000005</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -2409,7 +2561,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="4"/>
-        <v>0.97299999999999998</v>
+        <v>0.8919999999999999</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -2439,7 +2591,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="4"/>
-        <v>0.97920312499999995</v>
+        <v>0.91681250000000003</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -2469,7 +2621,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="4"/>
-        <v>0.984375</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -2499,7 +2651,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="4"/>
-        <v>0.98860937500000001</v>
+        <v>0.95443750000000005</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -2529,7 +2681,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="4"/>
-        <v>0.99199999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -2559,7 +2711,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="4"/>
-        <v>0.99464062499999994</v>
+        <v>0.9785625</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -2589,7 +2741,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="4"/>
-        <v>0.99662499999999998</v>
+        <v>0.98650000000000004</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -2619,7 +2771,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="4"/>
-        <v>0.998046875</v>
+        <v>0.9921875</v>
       </c>
     </row>
     <row r="41" spans="2:8">
@@ -2649,7 +2801,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="4"/>
-        <v>0.999</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -2679,7 +2831,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="4"/>
-        <v>0.99957812499999998</v>
+        <v>0.99831250000000005</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -2709,7 +2861,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>0.99987499999999996</v>
+        <v>0.99949999999999994</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -2739,7 +2891,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="4"/>
-        <v>0.99998437500000004</v>
+        <v>0.99993750000000003</v>
       </c>
     </row>
     <row r="45" spans="2:8">
